--- a/burndown chart.xlsx
+++ b/burndown chart.xlsx
@@ -107,12 +107,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -143,6 +144,20 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal tid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$6:$B$11</c:f>
@@ -200,6 +215,20 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Skattad tid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$6:$B$11</c:f>
@@ -241,30 +270,33 @@
                 <c:pt idx="2">
                   <c:v>20</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="61458688"/>
-        <c:axId val="61464576"/>
+        <c:axId val="72489600"/>
+        <c:axId val="75047296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61458688"/>
+        <c:axId val="72489600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61464576"/>
+        <c:crossAx val="75047296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61464576"/>
+        <c:axId val="75047296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -272,7 +304,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61458688"/>
+        <c:crossAx val="72489600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -285,7 +317,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -614,7 +646,7 @@
   <dimension ref="B4:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -677,7 +709,9 @@
       <c r="C9" s="1">
         <v>12</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="2" t="s">

--- a/burndown chart.xlsx
+++ b/burndown chart.xlsx
@@ -273,30 +273,33 @@
                 <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72489600"/>
-        <c:axId val="75047296"/>
+        <c:axId val="71161344"/>
+        <c:axId val="81211776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72489600"/>
+        <c:axId val="71161344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75047296"/>
+        <c:crossAx val="81211776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75047296"/>
+        <c:axId val="81211776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -304,7 +307,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72489600"/>
+        <c:crossAx val="71161344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -317,7 +320,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -646,7 +649,7 @@
   <dimension ref="B4:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -720,7 +723,9 @@
       <c r="C10" s="1">
         <v>6</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="2" t="s">

--- a/burndown chart.xlsx
+++ b/burndown chart.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Totalt</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Vid start</t>
   </si>
 </sst>
 </file>
@@ -107,13 +107,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -164,7 +165,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Totalt</c:v>
+                  <c:v>Vid start</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Dag 1</c:v>
@@ -235,7 +236,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Totalt</c:v>
+                  <c:v>Vid start</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Dag 1</c:v>
@@ -276,30 +277,33 @@
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="71161344"/>
-        <c:axId val="81211776"/>
+        <c:axId val="72948352"/>
+        <c:axId val="74396032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71161344"/>
+        <c:axId val="72948352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81211776"/>
+        <c:crossAx val="74396032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81211776"/>
+        <c:axId val="74396032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -307,7 +311,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71161344"/>
+        <c:crossAx val="72948352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -320,7 +324,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -646,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:O23"/>
+  <dimension ref="B4:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -660,21 +664,21 @@
   <sheetData>
     <row r="4" spans="2:4" ht="31.5">
       <c r="B4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
         <v>30</v>
@@ -685,7 +689,7 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>24</v>
@@ -696,7 +700,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
         <v>18</v>
@@ -707,7 +711,7 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>12</v>
@@ -718,7 +722,7 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
         <v>6</v>
@@ -729,12 +733,14 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:15" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
@@ -754,7 +760,45 @@
     </row>
     <row r="23" spans="2:15" ht="31.5">
       <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="C24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/burndown chart.xlsx
+++ b/burndown chart.xlsx
@@ -285,25 +285,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72948352"/>
-        <c:axId val="74396032"/>
+        <c:axId val="79960704"/>
+        <c:axId val="82325888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72948352"/>
+        <c:axId val="79960704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74396032"/>
+        <c:crossAx val="82325888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74396032"/>
+        <c:axId val="82325888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -311,7 +311,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72948352"/>
+        <c:crossAx val="79960704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -324,7 +324,190 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="sv-SE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal tid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$25:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Vid start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dag 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dag 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dag 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dag 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dag 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Skattad tid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$25:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Vid start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dag 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dag 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dag 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dag 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dag 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$25:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="86383616"/>
+        <c:axId val="86389504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="86383616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86389504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="86389504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86383616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -357,6 +540,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -652,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -775,31 +988,56 @@
       <c r="B25" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="C25">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C27">
+        <v>18</v>
+      </c>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/burndown chart.xlsx
+++ b/burndown chart.xlsx
@@ -285,25 +285,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="79960704"/>
-        <c:axId val="82325888"/>
+        <c:axId val="85400192"/>
+        <c:axId val="87769472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79960704"/>
+        <c:axId val="85400192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82325888"/>
+        <c:crossAx val="87769472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82325888"/>
+        <c:axId val="87769472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -311,7 +311,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79960704"/>
+        <c:crossAx val="85400192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -324,7 +324,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -464,29 +464,32 @@
                 <c:pt idx="1">
                   <c:v>24</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86383616"/>
-        <c:axId val="86389504"/>
+        <c:axId val="87802240"/>
+        <c:axId val="87803776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86383616"/>
+        <c:axId val="87802240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86389504"/>
+        <c:crossAx val="87803776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86389504"/>
+        <c:axId val="87803776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -494,7 +497,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86383616"/>
+        <c:crossAx val="87802240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -507,7 +510,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -866,7 +869,7 @@
   <dimension ref="B4:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1012,6 +1015,9 @@
       </c>
       <c r="C27">
         <v>18</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="2:15">

--- a/burndown chart.xlsx
+++ b/burndown chart.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -46,6 +46,21 @@
   </si>
   <si>
     <t>Vid start</t>
+  </si>
+  <si>
+    <t>Dag 6</t>
+  </si>
+  <si>
+    <t>Dag 7</t>
+  </si>
+  <si>
+    <t>Dag 8</t>
+  </si>
+  <si>
+    <t>Dag 9</t>
+  </si>
+  <si>
+    <t>Dag 10</t>
   </si>
 </sst>
 </file>
@@ -285,25 +300,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85400192"/>
-        <c:axId val="87769472"/>
+        <c:axId val="71358720"/>
+        <c:axId val="73220096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85400192"/>
+        <c:axId val="71358720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87769472"/>
+        <c:crossAx val="73220096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87769472"/>
+        <c:axId val="73220096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -311,7 +326,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85400192"/>
+        <c:crossAx val="71358720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -324,7 +339,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -364,19 +379,19 @@
                   <c:v>Vid start</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dag 1</c:v>
+                  <c:v>Dag 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Dag 2</c:v>
+                  <c:v>Dag 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Dag 3</c:v>
+                  <c:v>Dag 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Dag 4</c:v>
+                  <c:v>Dag 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Dag 5</c:v>
+                  <c:v>Dag 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -435,19 +450,19 @@
                   <c:v>Vid start</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dag 1</c:v>
+                  <c:v>Dag 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Dag 2</c:v>
+                  <c:v>Dag 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Dag 3</c:v>
+                  <c:v>Dag 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Dag 4</c:v>
+                  <c:v>Dag 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Dag 5</c:v>
+                  <c:v>Dag 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -467,29 +482,32 @@
                 <c:pt idx="2">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="87802240"/>
-        <c:axId val="87803776"/>
+        <c:axId val="73252864"/>
+        <c:axId val="73254400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87802240"/>
+        <c:axId val="73252864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87803776"/>
+        <c:crossAx val="73254400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87803776"/>
+        <c:axId val="73254400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -497,7 +515,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87802240"/>
+        <c:crossAx val="73252864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -510,7 +528,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -868,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1000,7 +1018,7 @@
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>24</v>
@@ -1011,7 +1029,7 @@
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>18</v>
@@ -1022,15 +1040,18 @@
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C28">
         <v>12</v>
       </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -1038,7 +1059,7 @@
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>

--- a/burndown chart.xlsx
+++ b/burndown chart.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -61,13 +61,19 @@
   </si>
   <si>
     <t>Dag 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Burndown chart - Joakim Larsson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +93,31 @@
       <b/>
       <i/>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -122,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -130,6 +161,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -300,25 +334,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="71358720"/>
-        <c:axId val="73220096"/>
+        <c:axId val="83220736"/>
+        <c:axId val="85213184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71358720"/>
+        <c:axId val="83220736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73220096"/>
+        <c:crossAx val="85213184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73220096"/>
+        <c:axId val="85213184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -326,7 +360,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71358720"/>
+        <c:crossAx val="83220736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -339,7 +373,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -485,29 +519,32 @@
                 <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="73252864"/>
-        <c:axId val="73254400"/>
+        <c:axId val="85245952"/>
+        <c:axId val="85247488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73252864"/>
+        <c:axId val="85245952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73254400"/>
+        <c:crossAx val="85247488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73254400"/>
+        <c:axId val="85247488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -515,7 +552,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73252864"/>
+        <c:crossAx val="85245952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -528,7 +565,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -884,24 +921,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:O30"/>
+  <dimension ref="B2:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" ht="31.5">
+    <row r="2" spans="2:16" ht="46.5">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" ht="46.5">
+      <c r="F3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="2:16" ht="31.5">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:16">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -910,7 +972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:16">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -921,7 +983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:16">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -932,7 +994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:16">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -943,7 +1005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:16">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -954,7 +1016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:16">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -965,7 +1027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:16">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1055,6 +1117,9 @@
       </c>
       <c r="C29">
         <v>6</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="2:15">

--- a/burndown chart.xlsx
+++ b/burndown chart.xlsx
@@ -334,25 +334,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83220736"/>
-        <c:axId val="85213184"/>
+        <c:axId val="84203776"/>
+        <c:axId val="88424448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83220736"/>
+        <c:axId val="84203776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85213184"/>
+        <c:crossAx val="88424448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85213184"/>
+        <c:axId val="88424448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -360,7 +360,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83220736"/>
+        <c:crossAx val="84203776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -373,7 +373,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -522,29 +522,32 @@
                 <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85245952"/>
-        <c:axId val="85247488"/>
+        <c:axId val="88457216"/>
+        <c:axId val="88458752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85245952"/>
+        <c:axId val="88457216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85247488"/>
+        <c:crossAx val="88458752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85247488"/>
+        <c:axId val="88458752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -552,7 +555,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85245952"/>
+        <c:crossAx val="88457216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -565,7 +568,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -923,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1129,7 +1132,9 @@
       <c r="C30" s="1">
         <v>0</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
